--- a/biology/Botanique/Square_Ferdinand-Brunot/Square_Ferdinand-Brunot.xlsx
+++ b/biology/Botanique/Square_Ferdinand-Brunot/Square_Ferdinand-Brunot.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le square Ferdinand-Brunot est un espace vert du 14e arrondissement de Paris, dans le quartier du Petit-Montrouge.
@@ -512,7 +524,9 @@
           <t>Situation et accès</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le square est situé place Ferdinand-Brunot, devant la mairie du 14e arrondissement de Paris. L'accès principal se trouve face à la mairie, les accès secondaires dans les rues Mouton-Duvernet, Saillard et Pierre-Castagnou (antérieurement rue Durouchoux). 
 Le square Ferdinand-Brunot est desservi par la ligne 4 à la station Mouton-Duvernet.
@@ -544,7 +558,9 @@
           <t>Origine du nom</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il rend hommage à Ferdinand Brunot (1860-1938), écrivain et maire du 14e arrondissement de 1910 à 1919.
 </t>
@@ -575,9 +591,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Aménagé en 1862 par Adolphe Alphand, sous le nom de « square de Montrouge » et « square de la Mairie du 14e arrondissement » il prend le nom de « square Ferdinand-Brunot » en 1947[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aménagé en 1862 par Adolphe Alphand, sous le nom de « square de Montrouge » et « square de la Mairie du 14e arrondissement » il prend le nom de « square Ferdinand-Brunot » en 1947.
 			Allée.
 			Buste de la République.
 </t>
